--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.808754660286418</v>
+        <v>0.1074876666666667</v>
       </c>
       <c r="N2">
-        <v>0.808754660286418</v>
+        <v>0.322463</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.111695032377957</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1586806295398324</v>
       </c>
       <c r="Q2">
-        <v>157.5715105289706</v>
+        <v>20.96861216147517</v>
       </c>
       <c r="R2">
-        <v>157.5715105289706</v>
+        <v>125.811672968851</v>
       </c>
       <c r="S2">
-        <v>0.2678876068064914</v>
+        <v>0.02949425193877049</v>
       </c>
       <c r="T2">
-        <v>0.2678876068064914</v>
+        <v>0.03145536058096188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.808754660286418</v>
+        <v>0.8548439999999999</v>
       </c>
       <c r="N3">
-        <v>0.808754660286418</v>
+        <v>1.709688</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.888304967622043</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8413193704601676</v>
       </c>
       <c r="Q3">
-        <v>47.55720495622432</v>
+        <v>166.762316556294</v>
       </c>
       <c r="R3">
-        <v>47.55720495622432</v>
+        <v>667.049266225176</v>
       </c>
       <c r="S3">
-        <v>0.08085208918389093</v>
+        <v>0.2345663003601622</v>
       </c>
       <c r="T3">
-        <v>0.08085208918389093</v>
+        <v>0.1667752657543456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H4">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J4">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.808754660286418</v>
+        <v>0.1074876666666667</v>
       </c>
       <c r="N4">
-        <v>0.808754660286418</v>
+        <v>0.322463</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.111695032377957</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1586806295398324</v>
       </c>
       <c r="Q4">
-        <v>115.4550429318033</v>
+        <v>6.708081953124556</v>
       </c>
       <c r="R4">
-        <v>115.4550429318033</v>
+        <v>60.372737578121</v>
       </c>
       <c r="S4">
-        <v>0.1962853249354044</v>
+        <v>0.009435524756134185</v>
       </c>
       <c r="T4">
-        <v>0.1962853249354044</v>
+        <v>0.01509435638972671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H5">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J5">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.808754660286418</v>
+        <v>0.8548439999999999</v>
       </c>
       <c r="N5">
-        <v>0.808754660286418</v>
+        <v>1.709688</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.888304967622043</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8413193704601676</v>
       </c>
       <c r="Q5">
-        <v>113.835833565227</v>
+        <v>53.349037959116</v>
       </c>
       <c r="R5">
-        <v>113.835833565227</v>
+        <v>320.094227754696</v>
       </c>
       <c r="S5">
-        <v>0.1935325041959534</v>
+        <v>0.0750402532194339</v>
       </c>
       <c r="T5">
-        <v>0.1935325041959534</v>
+        <v>0.08002977081785843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H6">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I6">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J6">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.808754660286418</v>
+        <v>0.1074876666666667</v>
       </c>
       <c r="N6">
-        <v>0.808754660286418</v>
+        <v>0.322463</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.111695032377957</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1586806295398324</v>
       </c>
       <c r="Q6">
-        <v>110.9610004038578</v>
+        <v>15.35591500229356</v>
       </c>
       <c r="R6">
-        <v>110.9610004038578</v>
+        <v>138.203235020642</v>
       </c>
       <c r="S6">
-        <v>0.1886449951977736</v>
+        <v>0.02159948509420705</v>
       </c>
       <c r="T6">
-        <v>0.1886449951977736</v>
+        <v>0.03455349164704312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.9449598765086</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H7">
-        <v>52.9449598765086</v>
+        <v>428.586334</v>
       </c>
       <c r="I7">
-        <v>0.07279747968048636</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J7">
-        <v>0.07279747968048636</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.808754660286418</v>
+        <v>0.8548439999999999</v>
       </c>
       <c r="N7">
-        <v>0.808754660286418</v>
+        <v>1.709688</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.888304967622043</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.8413193704601676</v>
       </c>
       <c r="Q7">
-        <v>42.81948303880374</v>
+        <v>122.124818700632</v>
       </c>
       <c r="R7">
-        <v>42.81948303880374</v>
+        <v>732.7489122037919</v>
       </c>
       <c r="S7">
-        <v>0.07279747968048636</v>
+        <v>0.1717796172200129</v>
       </c>
       <c r="T7">
-        <v>0.07279747968048636</v>
+        <v>0.1832014526536373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H8">
+        <v>424.850525</v>
+      </c>
+      <c r="I8">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J8">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1074876666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.322463</v>
+      </c>
+      <c r="O8">
+        <v>0.111695032377957</v>
+      </c>
+      <c r="P8">
+        <v>0.1586806295398324</v>
+      </c>
+      <c r="Q8">
+        <v>15.22206387145278</v>
+      </c>
+      <c r="R8">
+        <v>136.998574843075</v>
+      </c>
+      <c r="S8">
+        <v>0.02141121135701807</v>
+      </c>
+      <c r="T8">
+        <v>0.03425230321699754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H9">
+        <v>424.850525</v>
+      </c>
+      <c r="I9">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J9">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8548439999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.709688</v>
+      </c>
+      <c r="O9">
+        <v>0.888304967622043</v>
+      </c>
+      <c r="P9">
+        <v>0.8413193704601676</v>
+      </c>
+      <c r="Q9">
+        <v>121.0603073977</v>
+      </c>
+      <c r="R9">
+        <v>726.3618443862</v>
+      </c>
+      <c r="S9">
+        <v>0.1702822856694761</v>
+      </c>
+      <c r="T9">
+        <v>0.1816045617092878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>143.783834</v>
+      </c>
+      <c r="H10">
+        <v>431.351502</v>
+      </c>
+      <c r="I10">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J10">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1074876666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.322463</v>
+      </c>
+      <c r="O10">
+        <v>0.111695032377957</v>
+      </c>
+      <c r="P10">
+        <v>0.1586806295398324</v>
+      </c>
+      <c r="Q10">
+        <v>15.45498882104733</v>
+      </c>
+      <c r="R10">
+        <v>139.094899389426</v>
+      </c>
+      <c r="S10">
+        <v>0.02173884139248552</v>
+      </c>
+      <c r="T10">
+        <v>0.03477642504881293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.783834</v>
+      </c>
+      <c r="H11">
+        <v>431.351502</v>
+      </c>
+      <c r="I11">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J11">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8548439999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.709688</v>
+      </c>
+      <c r="O11">
+        <v>0.888304967622043</v>
+      </c>
+      <c r="P11">
+        <v>0.8413193704601676</v>
+      </c>
+      <c r="Q11">
+        <v>122.912747791896</v>
+      </c>
+      <c r="R11">
+        <v>737.4764867513759</v>
+      </c>
+      <c r="S11">
+        <v>0.1728879108423406</v>
+      </c>
+      <c r="T11">
+        <v>0.1843834380653125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H12">
+        <v>106.034229</v>
+      </c>
+      <c r="I12">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J12">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1074876666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.322463</v>
+      </c>
+      <c r="O12">
+        <v>0.111695032377957</v>
+      </c>
+      <c r="P12">
+        <v>0.1586806295398324</v>
+      </c>
+      <c r="Q12">
+        <v>5.6986859310045</v>
+      </c>
+      <c r="R12">
+        <v>34.192115586027</v>
+      </c>
+      <c r="S12">
+        <v>0.00801571783934169</v>
+      </c>
+      <c r="T12">
+        <v>0.008548692656290244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H13">
+        <v>106.034229</v>
+      </c>
+      <c r="I13">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J13">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8548439999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.709688</v>
+      </c>
+      <c r="O13">
+        <v>0.888304967622043</v>
+      </c>
+      <c r="P13">
+        <v>0.8413193704601676</v>
+      </c>
+      <c r="Q13">
+        <v>45.321362227638</v>
+      </c>
+      <c r="R13">
+        <v>181.285448910552</v>
+      </c>
+      <c r="S13">
+        <v>0.06374860031061742</v>
+      </c>
+      <c r="T13">
+        <v>0.04532488145972578</v>
       </c>
     </row>
   </sheetData>
